--- a/AAII_Financials/Quarterly/AGSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>AGSS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,63 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>41820</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -730,19 +738,25 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>1500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1200</v>
       </c>
       <c r="K8" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -758,20 +772,26 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
         <v>900</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1000</v>
       </c>
       <c r="K9" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -787,20 +807,26 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
         <v>600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>800</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -893,14 +933,20 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -916,11 +962,11 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +990,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -956,19 +1010,25 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>2800</v>
       </c>
       <c r="K17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -985,19 +1045,25 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1027,27 +1095,33 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1056,48 +1130,60 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1114,19 +1200,25 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1281,14 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1201,19 +1305,25 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1230,19 +1340,25 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1375,19 +1515,25 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1404,19 +1550,25 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1596,14 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1462,53 +1620,65 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>41820</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1705,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1547,23 +1721,29 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1608,20 +1794,26 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1841,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1666,20 +1864,26 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1692,23 +1896,29 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
+      <c r="G46" s="3">
+        <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1946,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1753,49 +1969,61 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>400</v>
+      </c>
+      <c r="M48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1866,23 +2106,29 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2156,14 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1928,19 +2180,25 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1976,26 +2238,32 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2011,20 +2279,26 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2041,19 +2315,25 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2070,19 +2350,25 @@
         <v>0</v>
       </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2099,19 +2385,25 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>300</v>
       </c>
       <c r="K61" s="3">
+        <v>300</v>
+      </c>
+      <c r="L61" s="3">
+        <v>300</v>
+      </c>
+      <c r="M61" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2536,14 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2244,19 +2560,25 @@
         <v>0</v>
       </c>
       <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2341,22 +2677,28 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>700</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>2700</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>2400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>1900</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,8 +2726,14 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2399,22 +2747,28 @@
         <v>-10100</v>
       </c>
       <c r="G72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-10000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-11300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-10800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,13 +2866,19 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -2515,22 +2887,28 @@
         <v>0</v>
       </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4200</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +2936,54 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>41820</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2610,19 +3000,25 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2651,20 +3049,26 @@
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3236,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2826,19 +3260,25 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2867,11 +3309,11 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -2879,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,16 +3391,22 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -2954,20 +3414,26 @@
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3581,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3113,19 +3605,25 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3651,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3171,15 +3675,21 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>AGSS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41820</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,19 +748,22 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,20 +785,23 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,20 +823,23 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,14 +959,17 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -968,8 +991,8 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1018,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1016,19 +1043,22 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1051,19 +1081,22 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1101,19 +1135,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1123,8 +1160,8 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1136,19 +1173,22 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1173,8 +1213,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1182,13 +1222,16 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1206,19 +1249,22 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,13 +1336,16 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1311,24 +1363,27 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1346,19 +1401,22 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1521,24 +1591,27 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1556,19 +1629,22 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,13 +1678,16 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1626,59 +1705,65 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41820</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1793,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1727,23 +1814,26 @@
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1867,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1800,20 +1893,23 @@
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1870,20 +1969,23 @@
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1902,23 +2004,26 @@
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1975,11 +2083,11 @@
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2013,17 +2124,20 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2112,23 +2232,26 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,8 +2285,11 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2186,19 +2312,22 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,22 +2357,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2251,19 +2382,22 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2285,20 +2419,23 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2321,19 +2458,22 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2356,19 +2496,22 @@
         <v>0</v>
       </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2391,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
@@ -2400,10 +2543,13 @@
         <v>300</v>
       </c>
       <c r="M61" s="3">
+        <v>300</v>
+      </c>
+      <c r="N61" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,13 +2697,16 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>0</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -2566,19 +2724,22 @@
         <v>0</v>
       </c>
       <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2683,22 +2851,25 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>2700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1900</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,8 +2903,11 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2753,22 +2927,25 @@
         <v>-10100</v>
       </c>
       <c r="I72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-10000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,8 +3055,11 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2881,7 +3067,7 @@
         <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2893,22 +3079,25 @@
         <v>0</v>
       </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4200</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,53 +3131,59 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41820</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3006,19 +3201,22 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3055,8 +3254,8 @@
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3065,10 +3264,13 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3456,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3266,19 +3483,22 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,28 +3512,29 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,19 +3624,22 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -3420,8 +3650,8 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3430,10 +3660,13 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3611,19 +3857,22 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>-200</v>
       </c>
       <c r="L100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M100" s="3">
         <v>4800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +3906,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3681,15 +3933,18 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>AGSS</t>
   </si>
@@ -1230,8 +1230,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1344,8 +1344,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1382,8 +1382,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1610,8 +1610,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1686,8 +1686,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2705,8 +2705,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>0</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -3182,8 +3182,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/AGSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>AGSS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,82 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>41820</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>41639</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>6100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>24900</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -751,27 +758,33 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>1500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1200</v>
       </c>
       <c r="N8" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>21900</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -788,28 +801,34 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>900</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1000</v>
       </c>
       <c r="N9" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3000</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -826,20 +845,26 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>800</v>
-      </c>
-      <c r="M10" s="3">
-        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>200</v>
+      </c>
+      <c r="P10" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -962,22 +1001,28 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -994,11 +1039,11 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,16 +1070,18 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1046,19 +1099,25 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>2800</v>
       </c>
       <c r="N17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P17" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1084,19 +1143,25 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,7 +1187,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1138,36 +1205,42 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-300</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -1176,19 +1249,25 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1216,25 +1295,31 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1252,19 +1337,25 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1274,20 +1365,20 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,16 +1436,22 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1366,27 +1469,33 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1404,19 +1513,25 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,7 +1715,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1594,27 +1733,33 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1632,19 +1777,25 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,16 +1832,22 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1708,62 +1865,74 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>41820</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>41639</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,16 +1965,18 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1817,23 +1990,29 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,16 +2049,22 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1900</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -1896,20 +2081,26 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,16 +2137,22 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -1972,28 +2169,34 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2007,23 +2210,29 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,16 +2269,22 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>600</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
@@ -2086,20 +2301,26 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
         <v>100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>400</v>
+      </c>
+      <c r="P48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2127,17 +2348,23 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,16 +2533,22 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2315,19 +2566,25 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,19 +2617,21 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
+      <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -2378,34 +2639,40 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
@@ -2422,28 +2689,34 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2461,27 +2734,33 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2499,27 +2778,33 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2537,42 +2822,48 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
       </c>
       <c r="N61" s="3">
+        <v>300</v>
+      </c>
+      <c r="O61" s="3">
+        <v>300</v>
+      </c>
+      <c r="P61" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,16 +3009,22 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2727,19 +3042,25 @@
         <v>0</v>
       </c>
       <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2854,22 +3189,28 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>2700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>2400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>1900</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,16 +3247,22 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10100</v>
+        <v>-2600</v>
       </c>
       <c r="E72" s="3">
-        <v>-10100</v>
+        <v>-2100</v>
       </c>
       <c r="F72" s="3">
         <v>-10100</v>
@@ -2930,22 +3277,28 @@
         <v>-10100</v>
       </c>
       <c r="J72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-10000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-9700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-10800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,23 +3423,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
@@ -3082,22 +3453,28 @@
         <v>0</v>
       </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4200</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,59 +3511,71 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>41820</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>41639</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -3204,19 +3593,25 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,13 +3626,15 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
@@ -3257,20 +3654,26 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,16 +3886,22 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3486,19 +3919,25 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3534,10 +3975,10 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,25 +4080,31 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -3653,20 +4112,26 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3860,19 +4351,25 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,16 +4406,22 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3936,15 +4439,21 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>AGSS</t>
   </si>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -792,8 +792,8 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>5200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -836,8 +836,8 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -1030,8 +1030,8 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1077,8 +1077,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>6500</v>
       </c>
       <c r="E17" s="3">
         <v>25000</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -1121,8 +1121,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1183,8 +1183,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>-300</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1227,8 +1227,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-400</v>
       </c>
       <c r="E21" s="3">
         <v>-300</v>
@@ -1315,8 +1315,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1371,8 +1371,8 @@
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>4</v>
@@ -1447,8 +1447,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -1491,8 +1491,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -1711,8 +1711,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>300</v>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1755,8 +1755,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -1843,8 +1843,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -3571,8 +3571,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/AGSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>AGSS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,99 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41820</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41729</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41639</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E8" s="3">
         <v>6100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24900</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I8" s="3">
         <v>5800</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -764,40 +768,43 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E9" s="3">
         <v>5500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21900</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I9" s="3">
         <v>5200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -807,41 +814,44 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="3">
+        <v>700</v>
+      </c>
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -851,20 +861,23 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1024,8 +1047,8 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1033,8 +1056,8 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1045,8 +1068,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,29 +1098,30 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E17" s="3">
         <v>6500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25000</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1105,40 +1132,43 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1149,19 +1179,22 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,19 +1211,20 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1199,7 +1233,7 @@
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1211,39 +1245,42 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1255,19 +1292,22 @@
         <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1301,8 +1341,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1310,19 +1350,22 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>1500</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1331,7 +1374,7 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1343,19 +1386,22 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1365,8 +1411,8 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
@@ -1374,14 +1420,14 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,19 +1491,22 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>1500</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1463,7 +1515,7 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -1475,30 +1527,33 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>1500</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1507,7 +1562,7 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -1519,19 +1574,22 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,19 +1773,22 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1727,7 +1797,7 @@
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1739,30 +1809,33 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>1500</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1771,7 +1844,7 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -1783,19 +1856,22 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,19 +1914,22 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>1500</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -1859,7 +1938,7 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -1871,68 +1950,74 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41820</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41729</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41639</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,20 +2053,21 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -1996,23 +2083,26 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,20 +2145,23 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2087,20 +2180,23 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,20 +2239,23 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2175,32 +2274,35 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3200</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2216,23 +2318,26 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2286,8 +2394,8 @@
       <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -2307,11 +2415,11 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>400</v>
       </c>
       <c r="O48" s="3">
         <v>400</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2354,17 +2465,20 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2477,26 +2597,29 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,20 +2662,23 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3800</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -2572,19 +2698,22 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>2200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,31 +2749,32 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2652,19 +2783,22 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2674,8 +2808,8 @@
       <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2695,32 +2829,35 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
@@ -2740,31 +2877,34 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
@@ -2784,30 +2924,33 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E61" s="3">
         <v>2800</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2828,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>300</v>
@@ -2837,10 +2980,13 @@
         <v>300</v>
       </c>
       <c r="P61" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2850,8 +2996,8 @@
       <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2865,8 +3011,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,20 +3170,23 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
         <v>5600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
@@ -3048,19 +3206,22 @@
         <v>0</v>
       </c>
       <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3195,22 +3363,25 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>2700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>2400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1900</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,19 +3424,22 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-10100</v>
       </c>
       <c r="G72" s="3">
         <v>-10100</v>
@@ -3283,22 +3457,25 @@
         <v>-10100</v>
       </c>
       <c r="L72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="M72" s="3">
         <v>-10000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,25 +3612,28 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-100</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
@@ -3459,22 +3645,25 @@
         <v>0</v>
       </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4200</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,68 +3706,74 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41820</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41729</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41639</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>1500</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -3587,7 +3782,7 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -3599,19 +3794,22 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,16 +3826,17 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -3645,11 +3844,11 @@
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -3660,8 +3859,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3670,10 +3869,13 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,20 +4106,23 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -3916,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3925,19 +4142,22 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3975,14 +4196,14 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,16 +4313,19 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -4104,10 +4334,10 @@
         <v>4</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -4118,8 +4348,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4128,10 +4358,13 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,16 +4579,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -4357,19 +4603,22 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>-200</v>
       </c>
       <c r="O100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P100" s="3">
         <v>4800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,20 +4661,23 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4445,15 +4697,18 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>
